--- a/Framework/TestData/Data.xlsx
+++ b/Framework/TestData/Data.xlsx
@@ -382,7 +382,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Framework/TestData/Data.xlsx
+++ b/Framework/TestData/Data.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="verify_Login_Successful" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -381,8 +380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -425,19 +424,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
